--- a/projeto-estoque/projeto-estoque-FINAL.xlsx
+++ b/projeto-estoque/projeto-estoque-FINAL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\09 Projeto - Controle de estoque simplificado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/felipe_pereira3_prestserv_petrobras_com_br/Documents/Documentos/GitHub/excel-basico/projeto-estoque/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_C757187DDB186DAB31B70ABF157932698D0CE9E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E23D8DA2-8424-4770-8995-A798C609E9AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="3" r:id="rId1"/>
@@ -21,10 +22,21 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">TblLançamentos[#All]</definedName>
     <definedName name="Produtos">TblCadastro[PRODUTO]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -93,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
@@ -153,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -199,17 +211,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -226,10 +227,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -249,6 +246,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -318,18 +346,6 @@
       <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -373,25 +389,6 @@
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -406,7 +403,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -454,6 +451,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-16E7-406A-B53C-B644AFCA8876}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -469,6 +471,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-16E7-406A-B53C-B644AFCA8876}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -484,6 +491,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-16E7-406A-B53C-B644AFCA8876}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -499,6 +511,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-16E7-406A-B53C-B644AFCA8876}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -514,6 +531,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-16E7-406A-B53C-B644AFCA8876}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -529,6 +551,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-16E7-406A-B53C-B644AFCA8876}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -546,6 +573,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-16E7-406A-B53C-B644AFCA8876}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -563,6 +595,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-16E7-406A-B53C-B644AFCA8876}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -589,7 +626,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -599,10 +636,8 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -670,7 +705,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B16F-414D-AAEF-4598B1FE59B0}"/>
             </c:ext>
@@ -698,14 +733,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -722,7 +757,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1313,7 +1348,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C85D60-34E0-4FBD-BD8B-6F464114AD16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C85D60-34E0-4FBD-BD8B-6F464114AD16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1425,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96989B03-5CBC-48B4-9BF9-91A5F884D9A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96989B03-5CBC-48B4-9BF9-91A5F884D9A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1504,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE7FF79-36EA-4145-8462-B426BF51858C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE7FF79-36EA-4145-8462-B426BF51858C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1582,7 @@
         <xdr:cNvPr id="5" name="CaixaDeTexto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84E8C79-8CD8-4045-87B2-6FB40BF7BD44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84E8C79-8CD8-4045-87B2-6FB40BF7BD44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1652,7 @@
         <xdr:cNvPr id="6" name="CaixaDeTexto 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAD41E9-F6E9-4958-9D2C-6EA93F516980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAD41E9-F6E9-4958-9D2C-6EA93F516980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1746,7 @@
         <xdr:cNvPr id="7" name="CaixaDeTexto 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC84495-69B1-4ED6-8791-2CCBC3463400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC84495-69B1-4ED6-8791-2CCBC3463400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1848,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F2AD3D-D477-4FE2-B201-87D6DA58DD0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F2AD3D-D477-4FE2-B201-87D6DA58DD0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1927,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5BBF04-EC68-4AFA-BA89-30D7804F69AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5BBF04-EC68-4AFA-BA89-30D7804F69AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +2004,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B50B905-8AAA-4780-B3CF-080D3951BC45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B50B905-8AAA-4780-B3CF-080D3951BC45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2082,7 @@
         <xdr:cNvPr id="5" name="CaixaDeTexto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C764081-B32C-4271-90E3-828DE405BD29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C764081-B32C-4271-90E3-828DE405BD29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2178,7 @@
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798FAB8A-E1EC-4F6E-9BE2-FA0DC0735597}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798FAB8A-E1EC-4F6E-9BE2-FA0DC0735597}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2209,7 @@
         <xdr:cNvPr id="10" name="CaixaDeTexto 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C8B6AB-3AF8-406D-900A-76D0E6C13230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C8B6AB-3AF8-406D-900A-76D0E6C13230}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2283,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEE84C8-06BF-4E6D-8EC4-F6A4D163AB77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEE84C8-06BF-4E6D-8EC4-F6A4D163AB77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2362,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA09915-E91D-4390-85D1-4D7E52C99410}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA09915-E91D-4390-85D1-4D7E52C99410}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2441,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4A96D0-68FE-4E2B-9BEA-4C6B5DDE72B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4A96D0-68FE-4E2B-9BEA-4C6B5DDE72B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2517,7 @@
         <xdr:cNvPr id="6" name="CaixaDeTexto 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F29B22-C621-4A22-B517-4452D16F4B68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F29B22-C621-4A22-B517-4452D16F4B68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,20 +2599,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TblCadastro" displayName="TblCadastro" ref="A3:F11" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A3:F11"/>
-  <sortState ref="A4:F11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TblCadastro" displayName="TblCadastro" ref="A3:F11" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A3:F11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F11">
     <sortCondition ref="A3:A11"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="PRODUTO"/>
-    <tableColumn id="2" name="MEDIDA"/>
-    <tableColumn id="3" name="ESTOQUE MÍNIMO" dataDxfId="15"/>
-    <tableColumn id="6" name="ESTOQUE MÁXIMO" dataDxfId="14"/>
-    <tableColumn id="5" name="SALDO" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRODUTO"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MEDIDA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ESTOQUE MÍNIMO" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ESTOQUE MÁXIMO" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SALDO" dataDxfId="15">
       <calculatedColumnFormula>SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[ENTRADA])-SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[SAÍDA])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="AVISOS" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="AVISOS" dataDxfId="14">
       <calculatedColumnFormula>IF(TblCadastro[[#This Row],[SALDO]]&lt;TblCadastro[[#This Row],[ESTOQUE MÍNIMO]],"Solicitar nova compra!",IF(TblCadastro[[#This Row],[SALDO]]&gt;TblCadastro[[#This Row],[ESTOQUE MÁXIMO]],"Priorizar Venda!",""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2586,17 +2621,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TblLançamentos" displayName="TblLançamentos" ref="A3:E108" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="A3:E107"/>
-  <sortState ref="A21:E103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TblLançamentos" displayName="TblLançamentos" ref="A3:E108" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12" totalsRowDxfId="11">
+  <autoFilter ref="A3:E107" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:E103">
     <sortCondition ref="B3:B105"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="PRODUTO" dataDxfId="7"/>
-    <tableColumn id="2" name="DATA" totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="ENTRADA" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="SAÍDA" totalsRowFunction="sum" dataDxfId="2"/>
-    <tableColumn id="5" name="SALDO" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRODUTO" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DATA" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ENTRADA" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="SAÍDA" totalsRowFunction="sum" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="SALDO" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2900,23 +2935,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="40.7265625" customWidth="1"/>
+    <col min="2" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="60.7265625" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2925,37 +2960,40 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="40.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="5" width="15.7265625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="60.7265625" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -2964,36 +3002,28 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3015,7 +3045,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3032,12 +3062,12 @@
         <f>SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[ENTRADA])-SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[SAÍDA])</f>
         <v>11</v>
       </c>
-      <c r="F5" s="28" t="str">
+      <c r="F5" s="12" t="str">
         <f>IF(TblCadastro[[#This Row],[SALDO]]&lt;TblCadastro[[#This Row],[ESTOQUE MÍNIMO]],"Solicitar nova compra!",IF(TblCadastro[[#This Row],[SALDO]]&gt;TblCadastro[[#This Row],[ESTOQUE MÁXIMO]],"Priorizar Venda!",""))</f>
         <v>Solicitar nova compra!</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3054,12 +3084,12 @@
         <f>SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[ENTRADA])-SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[SAÍDA])</f>
         <v>22</v>
       </c>
-      <c r="F6" s="28" t="str">
+      <c r="F6" s="12" t="str">
         <f>IF(TblCadastro[[#This Row],[SALDO]]&lt;TblCadastro[[#This Row],[ESTOQUE MÍNIMO]],"Solicitar nova compra!",IF(TblCadastro[[#This Row],[SALDO]]&gt;TblCadastro[[#This Row],[ESTOQUE MÁXIMO]],"Priorizar Venda!",""))</f>
         <v>Solicitar nova compra!</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3076,12 +3106,12 @@
         <f>SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[ENTRADA])-SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[SAÍDA])</f>
         <v>35</v>
       </c>
-      <c r="F7" s="28" t="str">
+      <c r="F7" s="12" t="str">
         <f>IF(TblCadastro[[#This Row],[SALDO]]&lt;TblCadastro[[#This Row],[ESTOQUE MÍNIMO]],"Solicitar nova compra!",IF(TblCadastro[[#This Row],[SALDO]]&gt;TblCadastro[[#This Row],[ESTOQUE MÁXIMO]],"Priorizar Venda!",""))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -3098,12 +3128,12 @@
         <f>SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[ENTRADA])-SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[SAÍDA])</f>
         <v>56</v>
       </c>
-      <c r="F8" s="28" t="str">
+      <c r="F8" s="12" t="str">
         <f>IF(TblCadastro[[#This Row],[SALDO]]&lt;TblCadastro[[#This Row],[ESTOQUE MÍNIMO]],"Solicitar nova compra!",IF(TblCadastro[[#This Row],[SALDO]]&gt;TblCadastro[[#This Row],[ESTOQUE MÁXIMO]],"Priorizar Venda!",""))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3120,12 +3150,12 @@
         <f>SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[ENTRADA])-SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[SAÍDA])</f>
         <v>64</v>
       </c>
-      <c r="F9" s="28" t="str">
+      <c r="F9" s="12" t="str">
         <f>IF(TblCadastro[[#This Row],[SALDO]]&lt;TblCadastro[[#This Row],[ESTOQUE MÍNIMO]],"Solicitar nova compra!",IF(TblCadastro[[#This Row],[SALDO]]&gt;TblCadastro[[#This Row],[ESTOQUE MÁXIMO]],"Priorizar Venda!",""))</f>
         <v>Priorizar Venda!</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3142,12 +3172,12 @@
         <f>SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[ENTRADA])-SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[SAÍDA])</f>
         <v>23</v>
       </c>
-      <c r="F10" s="28" t="str">
+      <c r="F10" s="12" t="str">
         <f>IF(TblCadastro[[#This Row],[SALDO]]&lt;TblCadastro[[#This Row],[ESTOQUE MÍNIMO]],"Solicitar nova compra!",IF(TblCadastro[[#This Row],[SALDO]]&gt;TblCadastro[[#This Row],[ESTOQUE MÁXIMO]],"Priorizar Venda!",""))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3164,23 +3194,26 @@
         <f>SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[ENTRADA])-SUMIF(TblLançamentos[PRODUTO],TblCadastro[[#This Row],[PRODUTO]],TblLançamentos[SAÍDA])</f>
         <v>30</v>
       </c>
-      <c r="F11" s="28" t="str">
+      <c r="F11" s="12" t="str">
         <f>IF(TblCadastro[[#This Row],[SALDO]]&lt;TblCadastro[[#This Row],[ESTOQUE MÍNIMO]],"Solicitar nova compra!",IF(TblCadastro[[#This Row],[SALDO]]&gt;TblCadastro[[#This Row],[ESTOQUE MÁXIMO]],"Priorizar Venda!",""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F4:F11">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Priorizar">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Priorizar">
       <formula>NOT(ISERROR(SEARCH("Priorizar",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="compra">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="compra">
       <formula>NOT(ISERROR(SEARCH("compra",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" blackAndWhite="1" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -3189,29 +3222,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="1" max="1" width="40.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="15.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="60.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -3220,33 +3253,25 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -3259,12 +3284,12 @@
       <c r="D4" s="10">
         <v>10</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -3277,12 +3302,12 @@
       <c r="D5" s="10">
         <v>8</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -3295,12 +3320,12 @@
       <c r="D6" s="10">
         <v>8</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -3313,12 +3338,12 @@
       <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -3331,12 +3356,12 @@
       <c r="D8" s="10">
         <v>6</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
@@ -3349,12 +3374,12 @@
       <c r="D9" s="10">
         <v>6</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -3367,12 +3392,12 @@
       <c r="D10" s="10">
         <v>5</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -3385,12 +3410,12 @@
       <c r="D11" s="10">
         <v>8</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3403,12 +3428,12 @@
       <c r="D12" s="10">
         <v>8</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -3421,12 +3446,12 @@
       <c r="D13" s="10">
         <v>9</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -3439,12 +3464,12 @@
       <c r="D14" s="10">
         <v>9</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
@@ -3457,12 +3482,12 @@
       <c r="D15" s="10">
         <v>7</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -3475,12 +3500,12 @@
       <c r="D16" s="10">
         <v>5</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
@@ -3493,12 +3518,12 @@
       <c r="D17" s="10">
         <v>8</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
@@ -3511,12 +3536,12 @@
       <c r="D18" s="10">
         <v>10</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
@@ -3529,12 +3554,12 @@
       <c r="D19" s="10">
         <v>8</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
@@ -3547,12 +3572,12 @@
       <c r="D20" s="10">
         <v>9</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
@@ -3565,12 +3590,12 @@
       <c r="D21" s="10">
         <v>9</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
@@ -3583,12 +3608,12 @@
       <c r="D22" s="10">
         <v>6</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
@@ -3601,12 +3626,12 @@
       <c r="D23" s="10">
         <v>5</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
@@ -3619,12 +3644,12 @@
       <c r="D24" s="10">
         <v>7</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
@@ -3637,12 +3662,12 @@
       <c r="D25" s="10">
         <v>6</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
@@ -3655,12 +3680,12 @@
       <c r="D26" s="10">
         <v>6</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
@@ -3673,12 +3698,12 @@
       <c r="D27" s="10">
         <v>5</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
@@ -3691,12 +3716,12 @@
       <c r="D28" s="10">
         <v>10</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
@@ -3709,12 +3734,12 @@
       <c r="D29" s="10">
         <v>5</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>3</v>
       </c>
@@ -3727,12 +3752,12 @@
       <c r="D30" s="10">
         <v>7</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
@@ -3745,12 +3770,12 @@
       <c r="D31" s="10">
         <v>10</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
@@ -3763,12 +3788,12 @@
       <c r="D32" s="10">
         <v>8</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>15</v>
       </c>
@@ -3781,12 +3806,12 @@
       <c r="D33" s="10">
         <v>8</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>7</v>
       </c>
@@ -3799,12 +3824,12 @@
       <c r="D34" s="10">
         <v>6</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>15</v>
       </c>
@@ -3817,12 +3842,12 @@
       <c r="D35" s="10">
         <v>9</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3835,12 +3860,12 @@
       <c r="D36" s="10">
         <v>7</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>5</v>
       </c>
@@ -3853,12 +3878,12 @@
       <c r="D37" s="10">
         <v>5</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
@@ -3871,12 +3896,12 @@
       <c r="D38" s="10">
         <v>7</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
@@ -3889,12 +3914,12 @@
       <c r="D39" s="10">
         <v>8</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>6</v>
       </c>
@@ -3907,12 +3932,12 @@
       <c r="D40" s="10">
         <v>9</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>14</v>
       </c>
@@ -3925,12 +3950,12 @@
       <c r="D41" s="10">
         <v>9</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-36</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>14</v>
       </c>
@@ -3943,12 +3968,12 @@
       <c r="D42" s="10">
         <v>8</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-36</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>14</v>
       </c>
@@ -3961,12 +3986,12 @@
       <c r="D43" s="10">
         <v>5</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -3979,12 +4004,12 @@
       <c r="D44" s="10">
         <v>8</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>3</v>
       </c>
@@ -3997,12 +4022,12 @@
       <c r="D45" s="10">
         <v>9</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
@@ -4015,12 +4040,12 @@
       <c r="D46" s="10">
         <v>7</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>5</v>
       </c>
@@ -4033,12 +4058,12 @@
       <c r="D47" s="10">
         <v>9</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
@@ -4051,12 +4076,12 @@
       <c r="D48" s="10">
         <v>7</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
@@ -4069,12 +4094,12 @@
       <c r="D49" s="10">
         <v>5</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
@@ -4087,12 +4112,12 @@
       <c r="D50" s="10">
         <v>10</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>3</v>
       </c>
@@ -4105,12 +4130,12 @@
       <c r="D51" s="10">
         <v>6</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>6</v>
       </c>
@@ -4123,12 +4148,12 @@
       <c r="D52" s="10">
         <v>10</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>7</v>
       </c>
@@ -4141,12 +4166,12 @@
       <c r="D53" s="10">
         <v>5</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>14</v>
       </c>
@@ -4159,12 +4184,12 @@
       <c r="D54" s="10">
         <v>5</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-29</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>3</v>
       </c>
@@ -4177,12 +4202,12 @@
       <c r="D55" s="10">
         <v>6</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>15</v>
       </c>
@@ -4195,12 +4220,12 @@
       <c r="D56" s="10">
         <v>10</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
@@ -4213,12 +4238,12 @@
       <c r="D57" s="10">
         <v>9</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
@@ -4231,12 +4256,12 @@
       <c r="D58" s="10">
         <v>5</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>3</v>
       </c>
@@ -4249,12 +4274,12 @@
       <c r="D59" s="10">
         <v>9</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>16</v>
       </c>
@@ -4267,12 +4292,12 @@
       <c r="D60" s="10">
         <v>6</v>
       </c>
-      <c r="E60" s="29">
+      <c r="E60" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>7</v>
       </c>
@@ -4285,12 +4310,12 @@
       <c r="D61" s="10">
         <v>9</v>
       </c>
-      <c r="E61" s="29">
+      <c r="E61" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>14</v>
       </c>
@@ -4303,12 +4328,12 @@
       <c r="D62" s="10">
         <v>7</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-28</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>7</v>
       </c>
@@ -4321,12 +4346,12 @@
       <c r="D63" s="10">
         <v>8</v>
       </c>
-      <c r="E63" s="29">
+      <c r="E63" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>7</v>
       </c>
@@ -4339,12 +4364,12 @@
       <c r="D64" s="10">
         <v>5</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>15</v>
       </c>
@@ -4357,12 +4382,12 @@
       <c r="D65" s="10">
         <v>10</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E65" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>7</v>
       </c>
@@ -4375,12 +4400,12 @@
       <c r="D66" s="10">
         <v>10</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E66" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -4393,12 +4418,12 @@
       <c r="D67" s="10">
         <v>8</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>16</v>
       </c>
@@ -4411,12 +4436,12 @@
       <c r="D68" s="10">
         <v>7</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>14</v>
       </c>
@@ -4429,12 +4454,12 @@
       <c r="D69" s="10">
         <v>10</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E69" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
@@ -4447,12 +4472,12 @@
       <c r="D70" s="10">
         <v>8</v>
       </c>
-      <c r="E70" s="29">
+      <c r="E70" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>5</v>
       </c>
@@ -4465,12 +4490,12 @@
       <c r="D71" s="10">
         <v>8</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>15</v>
       </c>
@@ -4483,12 +4508,12 @@
       <c r="D72" s="10">
         <v>6</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E72" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>6</v>
       </c>
@@ -4501,12 +4526,12 @@
       <c r="D73" s="10">
         <v>6</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>6</v>
       </c>
@@ -4519,12 +4544,12 @@
       <c r="D74" s="10">
         <v>9</v>
       </c>
-      <c r="E74" s="29">
+      <c r="E74" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>6</v>
       </c>
@@ -4537,12 +4562,12 @@
       <c r="D75" s="10">
         <v>6</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>6</v>
       </c>
@@ -4555,12 +4580,12 @@
       <c r="D76" s="10">
         <v>7</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E76" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>3</v>
       </c>
@@ -4573,12 +4598,12 @@
       <c r="D77" s="10">
         <v>7</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-15</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>6</v>
       </c>
@@ -4591,12 +4616,12 @@
       <c r="D78" s="10">
         <v>8</v>
       </c>
-      <c r="E78" s="29">
+      <c r="E78" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>5</v>
       </c>
@@ -4609,12 +4634,12 @@
       <c r="D79" s="10">
         <v>5</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>14</v>
       </c>
@@ -4627,12 +4652,12 @@
       <c r="D80" s="10">
         <v>6</v>
       </c>
-      <c r="E80" s="29">
+      <c r="E80" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>16</v>
       </c>
@@ -4645,12 +4670,12 @@
       <c r="D81" s="10">
         <v>6</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E81" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>6</v>
       </c>
@@ -4663,12 +4688,12 @@
       <c r="D82" s="10">
         <v>7</v>
       </c>
-      <c r="E82" s="29">
+      <c r="E82" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>14</v>
       </c>
@@ -4681,12 +4706,12 @@
       <c r="D83" s="10">
         <v>7</v>
       </c>
-      <c r="E83" s="29">
+      <c r="E83" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>16</v>
       </c>
@@ -4699,12 +4724,12 @@
       <c r="D84" s="10">
         <v>5</v>
       </c>
-      <c r="E84" s="29">
+      <c r="E84" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>5</v>
       </c>
@@ -4717,12 +4742,12 @@
       <c r="D85" s="10">
         <v>7</v>
       </c>
-      <c r="E85" s="29">
+      <c r="E85" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>6</v>
       </c>
@@ -4735,12 +4760,12 @@
       <c r="D86" s="10">
         <v>7</v>
       </c>
-      <c r="E86" s="29">
+      <c r="E86" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -4753,12 +4778,12 @@
       <c r="D87" s="10">
         <v>9</v>
       </c>
-      <c r="E87" s="29">
+      <c r="E87" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-24</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>6</v>
       </c>
@@ -4771,12 +4796,12 @@
       <c r="D88" s="10">
         <v>6</v>
       </c>
-      <c r="E88" s="29">
+      <c r="E88" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>5</v>
       </c>
@@ -4789,12 +4814,12 @@
       <c r="D89" s="10">
         <v>9</v>
       </c>
-      <c r="E89" s="29">
+      <c r="E89" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>6</v>
       </c>
@@ -4807,12 +4832,12 @@
       <c r="D90" s="10">
         <v>10</v>
       </c>
-      <c r="E90" s="29">
+      <c r="E90" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>6</v>
       </c>
@@ -4825,12 +4850,12 @@
       <c r="D91" s="10">
         <v>5</v>
       </c>
-      <c r="E91" s="29">
+      <c r="E91" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>7</v>
       </c>
@@ -4843,12 +4868,12 @@
       <c r="D92" s="10">
         <v>9</v>
       </c>
-      <c r="E92" s="29">
+      <c r="E92" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
@@ -4861,12 +4886,12 @@
       <c r="D93" s="10">
         <v>9</v>
       </c>
-      <c r="E93" s="29">
+      <c r="E93" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>-5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>14</v>
       </c>
@@ -4879,12 +4904,12 @@
       <c r="D94" s="10">
         <v>5</v>
       </c>
-      <c r="E94" s="29">
+      <c r="E94" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>7</v>
       </c>
@@ -4897,12 +4922,12 @@
       <c r="D95" s="10">
         <v>7</v>
       </c>
-      <c r="E95" s="29">
+      <c r="E95" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>7</v>
       </c>
@@ -4915,12 +4940,12 @@
       <c r="D96" s="10">
         <v>8</v>
       </c>
-      <c r="E96" s="29">
+      <c r="E96" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>5</v>
       </c>
@@ -4933,12 +4958,12 @@
       <c r="D97" s="10">
         <v>0</v>
       </c>
-      <c r="E97" s="27">
+      <c r="E97" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>7</v>
       </c>
@@ -4951,12 +4976,12 @@
       <c r="D98" s="10">
         <v>0</v>
       </c>
-      <c r="E98" s="29">
+      <c r="E98" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>6</v>
       </c>
@@ -4969,12 +4994,12 @@
       <c r="D99" s="10">
         <v>0</v>
       </c>
-      <c r="E99" s="29">
+      <c r="E99" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>3</v>
       </c>
@@ -4987,12 +5012,12 @@
       <c r="D100" s="10">
         <v>0</v>
       </c>
-      <c r="E100" s="29">
+      <c r="E100" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>5</v>
       </c>
@@ -5005,12 +5030,12 @@
       <c r="D101" s="10">
         <v>25</v>
       </c>
-      <c r="E101" s="29">
+      <c r="E101" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>6</v>
       </c>
@@ -5023,12 +5048,12 @@
       <c r="D102" s="10">
         <v>25</v>
       </c>
-      <c r="E102" s="29">
+      <c r="E102" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>14</v>
       </c>
@@ -5041,12 +5066,12 @@
       <c r="D103" s="10">
         <v>0</v>
       </c>
-      <c r="E103" s="29">
+      <c r="E103" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
@@ -5059,12 +5084,12 @@
       <c r="D104" s="10">
         <v>0</v>
       </c>
-      <c r="E104" s="29">
+      <c r="E104" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>16</v>
       </c>
@@ -5077,12 +5102,12 @@
       <c r="D105" s="10">
         <v>0</v>
       </c>
-      <c r="E105" s="29">
+      <c r="E105" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>16</v>
       </c>
@@ -5095,12 +5120,12 @@
       <c r="D106" s="10">
         <v>6</v>
       </c>
-      <c r="E106" s="29">
+      <c r="E106" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>17</v>
       </c>
@@ -5113,12 +5138,12 @@
       <c r="D107" s="10">
         <v>5</v>
       </c>
-      <c r="E107" s="29">
+      <c r="E107" s="22">
         <f>SUMIFS(TblLançamentos[ENTRADA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])-SUMIFS(TblLançamentos[SAÍDA],TblLançamentos[PRODUTO],TblLançamentos[[#This Row],[PRODUTO]],TblLançamentos[DATA],"&lt;="&amp;TblLançamentos[[#This Row],[DATA]])</f>
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108" s="6">
         <f>SUBTOTAL(103,TblLançamentos[DATA])</f>
@@ -5137,12 +5162,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <conditionalFormatting sqref="E4:E108">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A107" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Produtos</formula1>
     </dataValidation>
   </dataValidations>
@@ -5150,7 +5175,7 @@
   <pageSetup paperSize="9" scale="46" orientation="portrait" blackAndWhite="1" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LCONTROLE DE ESTOQUE SIMPLIFICADO&amp;RMovimento do Produto</oddHeader>
-    <oddFooter>&amp;RPágina &amp;P de &amp;N</oddFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA&amp;RPágina &amp;P de &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <tableParts count="1">
